--- a/Original/Tables/NewTU_Resources_ORG.xlsx
+++ b/Original/Tables/NewTU_Resources_ORG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="1" r:id="rId1"/>
@@ -1136,9 +1136,6 @@
     <t>YieldType</t>
   </si>
   <si>
-    <t>YieldChange</t>
-  </si>
-  <si>
     <t>TERRAIN_OCEAN</t>
   </si>
   <si>
@@ -1224,6 +1221,9 @@
   </si>
   <si>
     <t>Flavor</t>
+  </si>
+  <si>
+    <t>Yield</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5306,11 +5306,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5332,22 +5332,22 @@
         <v>314</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="67" customFormat="1" ht="79.5" x14ac:dyDescent="0.25">
@@ -5747,7 +5747,7 @@
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="81.75" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>315</v>
@@ -5768,10 +5768,10 @@
         <v>320</v>
       </c>
       <c r="H2" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>368</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>369</v>
       </c>
       <c r="J2" s="72" t="s">
         <v>321</v>
@@ -6455,10 +6455,10 @@
     </row>
     <row r="2" spans="1:28" s="3" customFormat="1" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A2" s="80" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B2" s="84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C2" s="84" t="s">
         <v>322</v>
@@ -6467,7 +6467,7 @@
         <v>324</v>
       </c>
       <c r="E2" s="84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F2" s="84" t="s">
         <v>325</v>
@@ -6476,67 +6476,67 @@
         <v>323</v>
       </c>
       <c r="H2" s="84" t="s">
+        <v>372</v>
+      </c>
+      <c r="I2" s="85" t="s">
         <v>373</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="J2" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="K2" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="L2" s="85" t="s">
         <v>376</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="M2" s="85" t="s">
         <v>377</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="N2" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="O2" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="P2" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="Q2" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="R2" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="S2" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="T2" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="U2" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="U2" s="85" t="s">
+      <c r="V2" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="W2" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="X2" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="Y2" s="85" t="s">
         <v>389</v>
       </c>
-      <c r="Y2" s="85" t="s">
+      <c r="Z2" s="85" t="s">
         <v>390</v>
       </c>
-      <c r="Z2" s="85" t="s">
+      <c r="AA2" s="86" t="s">
         <v>391</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AB2" s="86" t="s">
         <v>392</v>
-      </c>
-      <c r="AB2" s="86" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -6987,7 +6987,7 @@
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="81.75" x14ac:dyDescent="0.2">
       <c r="A2" s="83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>315</v>
@@ -7008,10 +7008,10 @@
         <v>320</v>
       </c>
       <c r="H2" s="67" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>368</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>369</v>
       </c>
       <c r="J2" s="72" t="s">
         <v>321</v>
@@ -7940,123 +7940,123 @@
         <v>314</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="V1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="X1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Y1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AB1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AC1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AD1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AE1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AH1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AI1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AJ1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AK1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM1" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:39" ht="144" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>328</v>

--- a/Original/Tables/NewTU_Resources_ORG.xlsx
+++ b/Original/Tables/NewTU_Resources_ORG.xlsx
@@ -5307,10 +5307,10 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:G1"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
